--- a/data/trans_dic/P25_9-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_9-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece mala circulación</t>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,83</t>
+          <t>1,61; 8,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,92</t>
+          <t>1,53; 6,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,82</t>
+          <t>0,54; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 24,82</t>
+          <t>3,98; 12,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,38</t>
+          <t>17,11; 28,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 19,66</t>
+          <t>15,9; 27,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 16,43</t>
+          <t>13,71; 24,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,47</t>
+          <t>19,62; 33,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,88</t>
+          <t>10,57; 17,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 16,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 14,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 22,64</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,17</t>
+          <t>3,07; 11,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 13,0</t>
+          <t>1,28; 7,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,59</t>
+          <t>1,73; 8,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 23,99</t>
+          <t>5,69; 17,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 23,76</t>
+          <t>11,52; 22,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 28,92</t>
+          <t>9,06; 18,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,37</t>
+          <t>9,11; 20,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,08; 15,09</t>
+          <t>14,4; 28,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 15,9</t>
+          <t>8,39; 15,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 11,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 12,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 20,64</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,8</t>
+          <t>0,0; 19,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 15,12</t>
+          <t>0,0; 15,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,92</t>
+          <t>0,0; 20,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 15,3</t>
+          <t>2,07; 23,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 23,37</t>
+          <t>3,4; 24,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 17,65</t>
+          <t>2,95; 26,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,43</t>
+          <t>2,61; 23,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 16,62</t>
+          <t>9,71; 41,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,81</t>
+          <t>1,95; 15,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 16,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 15,2</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 27,63</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,44%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,0</t>
+          <t>2,94; 7,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,58</t>
+          <t>2,09; 5,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,94</t>
+          <t>1,55; 5,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 22,17</t>
+          <t>5,89; 12,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 19,85</t>
+          <t>15,26; 22,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 19,8</t>
+          <t>13,84; 21,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,01</t>
+          <t>12,66; 19,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,15</t>
+          <t>18,92; 29,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,19</t>
+          <t>9,96; 15,02</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 13,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 11,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,43; 19,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece mala circulación (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17141</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12800</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7886</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38992</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>114774</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>88972</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75970</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>149858</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>131915</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101771</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>83856</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>188850</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6910; 34712</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5587; 25077</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2066; 19379</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20438; 66060</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>87077; 144060</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66952; 115280</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55884; 100589</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>110602; 189673</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99269; 167366</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>76378; 129031</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59444; 110483</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>141535; 243811</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22719</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11716</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13730</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43251</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>68474</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45687</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46600</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>82204</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>91193</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57403</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60330</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>125455</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11041; 41833</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4090; 23993</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5585; 26664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23478; 71356</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49013; 96600</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30648; 63922</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30527; 67697</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58248; 116726</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>65860; 120451</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40118; 78691</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42170; 82915</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>92634; 168571</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10040</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10187</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9451</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8590</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24852</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13655</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11452</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11407</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34892</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18984</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17258</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2473; 28237</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3281; 23833</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2409; 21862</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2159; 19262</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10809; 46178</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3810; 30923</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4153; 26207</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3961; 25560</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16381; 63765</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43328</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26517</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24433</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92282</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>193435</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>144110</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>131161</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>256914</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>236763</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>170626</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>155594</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>349196</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26126; 68136</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15998; 44059</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12196; 42469</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61519; 128019</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>157242; 236339</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>116418; 177298</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>104454; 161919</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>204251; 314793</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>191090; 288252</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>138185; 212342</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>122863; 192904</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>285340; 420514</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
